--- a/data/pca/factorExposure/factorExposure_2018-06-27.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-06-27.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.02237718600619458</v>
+        <v>-0.02153115630962913</v>
       </c>
       <c r="C2">
-        <v>-0.01946106813454215</v>
+        <v>0.01879791996839239</v>
       </c>
       <c r="D2">
-        <v>0.02972379368844704</v>
+        <v>0.02180773929189224</v>
       </c>
       <c r="E2">
-        <v>0.02029503395396171</v>
+        <v>0.01650309794148831</v>
       </c>
       <c r="F2">
-        <v>-0.1134073489059271</v>
+        <v>-0.001996949971218833</v>
       </c>
       <c r="G2">
-        <v>-0.05379444840865259</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.05233781994970048</v>
+      </c>
+      <c r="H2">
+        <v>0.05123150544797209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.1024307466834516</v>
+        <v>-0.08285161235328292</v>
       </c>
       <c r="C3">
-        <v>0.04349728300939976</v>
+        <v>-0.01266777502814792</v>
       </c>
       <c r="D3">
-        <v>0.09309126720867661</v>
+        <v>0.02548883370210939</v>
       </c>
       <c r="E3">
-        <v>0.05122116082414031</v>
+        <v>0.009811673588456469</v>
       </c>
       <c r="F3">
-        <v>-0.4032274286048456</v>
+        <v>0.04387386785137697</v>
       </c>
       <c r="G3">
-        <v>-0.1457216070061118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.1784233767656125</v>
+      </c>
+      <c r="H3">
+        <v>0.1706337552239195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.04470344049847605</v>
+        <v>-0.04514234040110433</v>
       </c>
       <c r="C4">
-        <v>-0.02048815082637049</v>
+        <v>0.004847000504336544</v>
       </c>
       <c r="D4">
-        <v>-0.01391426015585037</v>
+        <v>0.0476017339152895</v>
       </c>
       <c r="E4">
-        <v>-0.04061589660377225</v>
+        <v>-0.02226172548706338</v>
       </c>
       <c r="F4">
-        <v>-0.0907816558961607</v>
+        <v>-0.04872243824045713</v>
       </c>
       <c r="G4">
-        <v>-0.05533913918308381</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.04159827010830983</v>
+      </c>
+      <c r="H4">
+        <v>0.05947958523584086</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.01993146723613611</v>
+        <v>-0.02588614979662077</v>
       </c>
       <c r="C6">
-        <v>-0.01258515305940818</v>
+        <v>0.004084948689001307</v>
       </c>
       <c r="D6">
-        <v>0.01358749642862084</v>
+        <v>0.0511206060929111</v>
       </c>
       <c r="E6">
-        <v>-0.01869193740973375</v>
+        <v>-0.007441488705936408</v>
       </c>
       <c r="F6">
-        <v>-0.02523767596242952</v>
+        <v>-0.02888567035814694</v>
       </c>
       <c r="G6">
-        <v>0.01025760196730606</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.01436082037563661</v>
+      </c>
+      <c r="H6">
+        <v>0.06473493837594541</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.02386489956973059</v>
+        <v>-0.02227593742787056</v>
       </c>
       <c r="C7">
-        <v>-0.002893764001108342</v>
+        <v>0.002698922945017152</v>
       </c>
       <c r="D7">
-        <v>0.01385338366027845</v>
+        <v>0.02737208047657486</v>
       </c>
       <c r="E7">
-        <v>-0.02696106059750039</v>
+        <v>-0.04203545810285535</v>
       </c>
       <c r="F7">
-        <v>-0.05432362119829662</v>
+        <v>-0.003619586962567799</v>
       </c>
       <c r="G7">
-        <v>-0.06307636771587696</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.0250338465814249</v>
+      </c>
+      <c r="H7">
+        <v>0.03948366918596929</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.01873708610057295</v>
+        <v>-0.005770383943915809</v>
       </c>
       <c r="C8">
-        <v>-0.01213730108441261</v>
+        <v>-0.001419241112343641</v>
       </c>
       <c r="D8">
-        <v>0.008922662236658838</v>
+        <v>0.01086415881366951</v>
       </c>
       <c r="E8">
-        <v>-0.03305496514649831</v>
+        <v>-0.00710601802017608</v>
       </c>
       <c r="F8">
-        <v>-0.1079310043706663</v>
+        <v>-0.01471669295561089</v>
       </c>
       <c r="G8">
-        <v>-0.04937870940320598</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.04568730085042484</v>
+      </c>
+      <c r="H8">
+        <v>0.04493341667332517</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03472056947950727</v>
+        <v>-0.03637821038166064</v>
       </c>
       <c r="C9">
-        <v>-0.01845705071037347</v>
+        <v>0.0007308983872122627</v>
       </c>
       <c r="D9">
-        <v>-0.004854821226771259</v>
+        <v>0.03540849483218693</v>
       </c>
       <c r="E9">
-        <v>-0.03148653679299752</v>
+        <v>-0.01175226386849709</v>
       </c>
       <c r="F9">
-        <v>-0.09632600070972425</v>
+        <v>-0.02474418508621795</v>
       </c>
       <c r="G9">
-        <v>-0.05438881507155989</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.048379425215125</v>
+      </c>
+      <c r="H9">
+        <v>0.05618615550702919</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.03034877378912592</v>
+        <v>-0.102652308541171</v>
       </c>
       <c r="C10">
-        <v>0.0471819954569083</v>
+        <v>-0.02745163312247414</v>
       </c>
       <c r="D10">
-        <v>-0.08574615649724673</v>
+        <v>-0.157995842944926</v>
       </c>
       <c r="E10">
-        <v>0.1106942571186904</v>
+        <v>0.006725899822841495</v>
       </c>
       <c r="F10">
-        <v>-0.03804242514311636</v>
+        <v>0.04118379884637389</v>
       </c>
       <c r="G10">
-        <v>0.02365636283605645</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.02215544810671783</v>
+      </c>
+      <c r="H10">
+        <v>0.006156668791229043</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.03432178731459033</v>
+        <v>-0.02113065193058931</v>
       </c>
       <c r="C11">
-        <v>-0.0150127707875237</v>
+        <v>-0.008193147859949642</v>
       </c>
       <c r="D11">
-        <v>0.0194829758120846</v>
+        <v>0.03978488025086543</v>
       </c>
       <c r="E11">
-        <v>-0.02480771701378673</v>
+        <v>0.001190218379906236</v>
       </c>
       <c r="F11">
-        <v>-0.05036955912422405</v>
+        <v>-0.008504152809396414</v>
       </c>
       <c r="G11">
-        <v>-0.02602090432764443</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.02620857812322207</v>
+      </c>
+      <c r="H11">
+        <v>0.04689056643678654</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.04264424516952555</v>
+        <v>-0.02982195552955386</v>
       </c>
       <c r="C12">
-        <v>-0.01620449312370079</v>
+        <v>-0.006464738192579844</v>
       </c>
       <c r="D12">
-        <v>0.01254660991617074</v>
+        <v>0.04022693935016006</v>
       </c>
       <c r="E12">
-        <v>-0.03606014067626829</v>
+        <v>-0.008665453736408696</v>
       </c>
       <c r="F12">
-        <v>-0.03727765426201888</v>
+        <v>-0.01519171243507993</v>
       </c>
       <c r="G12">
-        <v>-0.01478910621990832</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.01091687094540495</v>
+      </c>
+      <c r="H12">
+        <v>0.02517299927859419</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01568144382068509</v>
+        <v>-0.02581820868258169</v>
       </c>
       <c r="C13">
-        <v>-0.02046244129376022</v>
+        <v>0.01456761135631272</v>
       </c>
       <c r="D13">
-        <v>0.0135534904215568</v>
+        <v>-3.546249968061571e-06</v>
       </c>
       <c r="E13">
-        <v>0.01008894241255787</v>
+        <v>0.0126337356322448</v>
       </c>
       <c r="F13">
-        <v>-0.08008738846178022</v>
+        <v>-0.009032926358328565</v>
       </c>
       <c r="G13">
-        <v>-0.03863110793959831</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.05618870518965793</v>
+      </c>
+      <c r="H13">
+        <v>0.06312693742091217</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01466510266710145</v>
+        <v>-0.01726946577704681</v>
       </c>
       <c r="C14">
-        <v>-0.007536409295864037</v>
+        <v>0.0007979314952838893</v>
       </c>
       <c r="D14">
-        <v>-0.004463874114181913</v>
+        <v>0.005578146246393967</v>
       </c>
       <c r="E14">
-        <v>-0.03241595957004879</v>
+        <v>-0.01350599183560882</v>
       </c>
       <c r="F14">
-        <v>-0.05946665484515126</v>
+        <v>-0.0128723657135993</v>
       </c>
       <c r="G14">
-        <v>-0.06671720148091934</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.04325527325039869</v>
+      </c>
+      <c r="H14">
+        <v>0.007973309911530264</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02661557338926689</v>
+        <v>-0.02238124292941241</v>
       </c>
       <c r="C16">
-        <v>-0.01898230475120524</v>
+        <v>-0.008670152045851124</v>
       </c>
       <c r="D16">
-        <v>0.01836044613138155</v>
+        <v>0.03471777620568139</v>
       </c>
       <c r="E16">
-        <v>-0.01887669327359663</v>
+        <v>-0.002642216160399308</v>
       </c>
       <c r="F16">
-        <v>-0.05408144035834444</v>
+        <v>-0.0145995140212142</v>
       </c>
       <c r="G16">
-        <v>-0.02680967457933954</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.02317892401959645</v>
+      </c>
+      <c r="H16">
+        <v>0.03914645530365395</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.04835831729917986</v>
+        <v>-0.0342768564598123</v>
       </c>
       <c r="C19">
-        <v>-0.01781182870031749</v>
+        <v>0.0005606897540761254</v>
       </c>
       <c r="D19">
-        <v>0.01749413070822618</v>
+        <v>0.02121931462637176</v>
       </c>
       <c r="E19">
-        <v>-0.02667722280668836</v>
+        <v>-0.005163563577432612</v>
       </c>
       <c r="F19">
-        <v>-0.1104913913160777</v>
+        <v>-0.01671473726342353</v>
       </c>
       <c r="G19">
-        <v>-0.02793737706335746</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.05781644244842987</v>
+      </c>
+      <c r="H19">
+        <v>0.07466393594835728</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.001098167835283659</v>
+        <v>-0.01024630744940501</v>
       </c>
       <c r="C20">
-        <v>-0.01007981235471642</v>
+        <v>0.006554358997948798</v>
       </c>
       <c r="D20">
-        <v>-0.001201454910767215</v>
+        <v>0.008583381819504332</v>
       </c>
       <c r="E20">
-        <v>-0.02447548065340473</v>
+        <v>-0.003958333542222477</v>
       </c>
       <c r="F20">
-        <v>-0.07889513440744722</v>
+        <v>-0.01098595271791153</v>
       </c>
       <c r="G20">
-        <v>-0.06957236147348042</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.04947922944059457</v>
+      </c>
+      <c r="H20">
+        <v>0.02032630690913297</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.002149794726826208</v>
+        <v>-0.01649460223729676</v>
       </c>
       <c r="C21">
-        <v>0.0158422094416895</v>
+        <v>0.008082658432892133</v>
       </c>
       <c r="D21">
-        <v>0.01165239625340507</v>
+        <v>0.008357562417355772</v>
       </c>
       <c r="E21">
-        <v>-0.01921412103155284</v>
+        <v>-0.01737245382217325</v>
       </c>
       <c r="F21">
-        <v>-0.05459652971603712</v>
+        <v>-0.002641264067818897</v>
       </c>
       <c r="G21">
-        <v>-0.02287724710654829</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.04855584305189876</v>
+      </c>
+      <c r="H21">
+        <v>0.04453271041482146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.03084451891200092</v>
+        <v>-0.01990561744573563</v>
       </c>
       <c r="C24">
-        <v>-0.01942767801483546</v>
+        <v>-0.002959303487243557</v>
       </c>
       <c r="D24">
-        <v>0.009777951099386473</v>
+        <v>0.0353095116853719</v>
       </c>
       <c r="E24">
-        <v>-0.004137267808314168</v>
+        <v>0.0001350632250292721</v>
       </c>
       <c r="F24">
-        <v>-0.04716690983376434</v>
+        <v>-0.008811299280396756</v>
       </c>
       <c r="G24">
-        <v>-0.0247937752810516</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.01988959738459626</v>
+      </c>
+      <c r="H24">
+        <v>0.04350717701145985</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.03009841010565483</v>
+        <v>-0.02988944084637622</v>
       </c>
       <c r="C25">
-        <v>-0.01108140722119516</v>
+        <v>-0.0009183294887368172</v>
       </c>
       <c r="D25">
-        <v>0.01808630054196561</v>
+        <v>0.03448012670506148</v>
       </c>
       <c r="E25">
-        <v>-0.02817700550438958</v>
+        <v>-0.00438304660924808</v>
       </c>
       <c r="F25">
-        <v>-0.05161705826570822</v>
+        <v>-0.01533054517526644</v>
       </c>
       <c r="G25">
-        <v>-0.007489189026052042</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.02372706161393815</v>
+      </c>
+      <c r="H25">
+        <v>0.04637092400929323</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.02034371765469462</v>
+        <v>-0.01980599568072704</v>
       </c>
       <c r="C26">
-        <v>-0.004282818600018293</v>
+        <v>0.01750834442052646</v>
       </c>
       <c r="D26">
-        <v>0.03127039403977195</v>
+        <v>0.00314967127489695</v>
       </c>
       <c r="E26">
-        <v>-0.006521794200517256</v>
+        <v>0.001343735931124689</v>
       </c>
       <c r="F26">
-        <v>-0.06568069210936646</v>
+        <v>0.001232482298578608</v>
       </c>
       <c r="G26">
-        <v>-0.0370506230021845</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.03222696953329779</v>
+      </c>
+      <c r="H26">
+        <v>0.0222383384679025</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.06045535095112491</v>
+        <v>-0.02410677114818967</v>
       </c>
       <c r="C27">
-        <v>-0.02566024334103868</v>
+        <v>-0.008973105315016897</v>
       </c>
       <c r="D27">
-        <v>-0.02450784560308764</v>
+        <v>0.01465086710951054</v>
       </c>
       <c r="E27">
-        <v>-0.03064506926038978</v>
+        <v>-0.006658080563192849</v>
       </c>
       <c r="F27">
-        <v>-0.06108127943800594</v>
+        <v>-0.01456094622726536</v>
       </c>
       <c r="G27">
-        <v>-0.04417790206636658</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.01874944198912563</v>
+      </c>
+      <c r="H27">
+        <v>0.003595309862511357</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.04570761852700977</v>
+        <v>-0.1511832497555948</v>
       </c>
       <c r="C28">
-        <v>0.05269457806619769</v>
+        <v>-0.02707418754412802</v>
       </c>
       <c r="D28">
-        <v>-0.1181246266256687</v>
+        <v>-0.2246955689364578</v>
       </c>
       <c r="E28">
-        <v>0.153167509160786</v>
+        <v>0.005004420420951739</v>
       </c>
       <c r="F28">
-        <v>-0.0322002430850411</v>
+        <v>0.04376955833121528</v>
       </c>
       <c r="G28">
-        <v>0.00277894232173305</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.007558023443947181</v>
+      </c>
+      <c r="H28">
+        <v>-0.01208765588603385</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.02154448858533061</v>
+        <v>-0.02190827322382913</v>
       </c>
       <c r="C29">
-        <v>-0.007890177134369401</v>
+        <v>-0.001196346404748104</v>
       </c>
       <c r="D29">
-        <v>-0.005734838972821946</v>
+        <v>0.007211870372325355</v>
       </c>
       <c r="E29">
-        <v>-0.04693136496359442</v>
+        <v>-0.01337057603024787</v>
       </c>
       <c r="F29">
-        <v>-0.0519682807294005</v>
+        <v>-0.01513321842446816</v>
       </c>
       <c r="G29">
-        <v>-0.05911418287293002</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.04105431906277029</v>
+      </c>
+      <c r="H29">
+        <v>0.002585823636317438</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.09100339204111248</v>
+        <v>-0.05241419861553175</v>
       </c>
       <c r="C30">
-        <v>-0.05709448328627249</v>
+        <v>0.004968666301004496</v>
       </c>
       <c r="D30">
-        <v>0.01504399600499261</v>
+        <v>0.06906367974074468</v>
       </c>
       <c r="E30">
-        <v>-0.0573684993536575</v>
+        <v>0.02931717923543407</v>
       </c>
       <c r="F30">
-        <v>-0.1023431447784105</v>
+        <v>-0.04556363843589483</v>
       </c>
       <c r="G30">
-        <v>-0.05597790585206198</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.05601143171631092</v>
+      </c>
+      <c r="H30">
+        <v>0.06776070538491323</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.06078500303212665</v>
+        <v>-0.05424040582954451</v>
       </c>
       <c r="C31">
-        <v>-0.02713729861189333</v>
+        <v>-0.01396724743580284</v>
       </c>
       <c r="D31">
-        <v>0.02834583217929313</v>
+        <v>0.02521658333159272</v>
       </c>
       <c r="E31">
-        <v>0.001352526434192239</v>
+        <v>0.00529230013137598</v>
       </c>
       <c r="F31">
-        <v>-0.04182024837688839</v>
+        <v>-0.009691899569438073</v>
       </c>
       <c r="G31">
-        <v>-0.07009106639744271</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.01715425437974366</v>
+      </c>
+      <c r="H31">
+        <v>0.01092313409964062</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.01995474109523778</v>
+        <v>-0.01229815824394015</v>
       </c>
       <c r="C32">
-        <v>-0.01525536447550305</v>
+        <v>-0.01365778049156229</v>
       </c>
       <c r="D32">
-        <v>0.0168876730955283</v>
+        <v>0.004933476299142331</v>
       </c>
       <c r="E32">
-        <v>-0.073740060840242</v>
+        <v>-0.03065868970478414</v>
       </c>
       <c r="F32">
-        <v>-0.08633682253647684</v>
+        <v>-0.03570320878319052</v>
       </c>
       <c r="G32">
-        <v>-0.05598385222309568</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.03456044220530293</v>
+      </c>
+      <c r="H32">
+        <v>0.06566412407086382</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.04929240973183188</v>
+        <v>-0.03940834193462388</v>
       </c>
       <c r="C33">
-        <v>-0.01315227959432205</v>
+        <v>-0.001142288335402196</v>
       </c>
       <c r="D33">
-        <v>0.04858409808962337</v>
+        <v>0.03319987699503453</v>
       </c>
       <c r="E33">
-        <v>-0.02379413329661489</v>
+        <v>0.02396582252660317</v>
       </c>
       <c r="F33">
-        <v>-0.09291927278370914</v>
+        <v>-0.0004440104138412803</v>
       </c>
       <c r="G33">
-        <v>-0.06454722663497436</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.04679253119160723</v>
+      </c>
+      <c r="H33">
+        <v>0.04405530458431482</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03220569074011327</v>
+        <v>-0.02660496136464182</v>
       </c>
       <c r="C34">
-        <v>-0.02097282346962103</v>
+        <v>-0.01701815684465063</v>
       </c>
       <c r="D34">
-        <v>0.01356403251081676</v>
+        <v>0.0362612040244127</v>
       </c>
       <c r="E34">
-        <v>-0.02452093874638918</v>
+        <v>-0.008805407590141121</v>
       </c>
       <c r="F34">
-        <v>-0.06098896367233038</v>
+        <v>-0.0169166821697719</v>
       </c>
       <c r="G34">
-        <v>-0.01501148662047519</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.02102959822582174</v>
+      </c>
+      <c r="H34">
+        <v>0.04044383840482447</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01527040806926814</v>
+        <v>-0.02117305529208854</v>
       </c>
       <c r="C36">
-        <v>-0.002747494360346387</v>
+        <v>0.003991956458742099</v>
       </c>
       <c r="D36">
-        <v>0.0001827416995537208</v>
+        <v>0.001715943492388589</v>
       </c>
       <c r="E36">
-        <v>-0.02539481369606002</v>
+        <v>-0.006869105695277127</v>
       </c>
       <c r="F36">
-        <v>-0.03741004202860556</v>
+        <v>-0.004072524032364784</v>
       </c>
       <c r="G36">
-        <v>-0.03606454284081352</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.01972662723019943</v>
+      </c>
+      <c r="H36">
+        <v>0.01239455134264721</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.002098078680880108</v>
+        <v>-0.02315960885948194</v>
       </c>
       <c r="C38">
-        <v>0.01263506871861226</v>
+        <v>-0.01611759075710001</v>
       </c>
       <c r="D38">
-        <v>0.01642288043652379</v>
+        <v>0.00815245799620576</v>
       </c>
       <c r="E38">
-        <v>0.02249267126778775</v>
+        <v>0.001727358733672405</v>
       </c>
       <c r="F38">
-        <v>-0.0367186271756858</v>
+        <v>-0.007366720749614224</v>
       </c>
       <c r="G38">
-        <v>-0.01268182860479848</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.01895640861322756</v>
+      </c>
+      <c r="H38">
+        <v>0.03951252949905491</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.03957698580780954</v>
+        <v>-0.01804773421018607</v>
       </c>
       <c r="C39">
-        <v>-0.03737227059430542</v>
+        <v>-0.00089790960536837</v>
       </c>
       <c r="D39">
-        <v>0.02811941022952394</v>
+        <v>0.07639754944689818</v>
       </c>
       <c r="E39">
-        <v>-0.02589866563140805</v>
+        <v>0.003261085512393862</v>
       </c>
       <c r="F39">
-        <v>-0.07421535199074805</v>
+        <v>-0.01750160967792433</v>
       </c>
       <c r="G39">
-        <v>-0.03028440046783047</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.0428497303453065</v>
+      </c>
+      <c r="H39">
+        <v>0.07111553657628809</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.03718290587884775</v>
+        <v>-0.03125769812982861</v>
       </c>
       <c r="C40">
-        <v>-0.0664218213676963</v>
+        <v>-0.0006557454940736979</v>
       </c>
       <c r="D40">
-        <v>0.03171163507648804</v>
+        <v>0.0210743695457914</v>
       </c>
       <c r="E40">
-        <v>0.01695744864303361</v>
+        <v>0.02474767879722196</v>
       </c>
       <c r="F40">
-        <v>-0.08106363937764607</v>
+        <v>-0.02710202460226122</v>
       </c>
       <c r="G40">
-        <v>-0.04634685090743883</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.02680463876566218</v>
+      </c>
+      <c r="H40">
+        <v>0.06857535606425355</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.0005534307594124412</v>
+        <v>-0.01124054431907787</v>
       </c>
       <c r="C41">
-        <v>0.002496685130078948</v>
+        <v>0.0006440841248337147</v>
       </c>
       <c r="D41">
-        <v>0.007925769584783183</v>
+        <v>-0.01225704973048672</v>
       </c>
       <c r="E41">
-        <v>-0.007640985511424078</v>
+        <v>0.00196395269282216</v>
       </c>
       <c r="F41">
-        <v>-0.007847060449195876</v>
+        <v>0.001897442376032128</v>
       </c>
       <c r="G41">
-        <v>-0.05297636053659362</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.003547113843274974</v>
+      </c>
+      <c r="H41">
+        <v>-0.004073525807507726</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.3722721516706909</v>
+        <v>-0.1998425650146916</v>
       </c>
       <c r="C42">
-        <v>0.6060774999062687</v>
+        <v>0.07247297807014311</v>
       </c>
       <c r="D42">
-        <v>0.5728082701848889</v>
+        <v>0.3328815045654738</v>
       </c>
       <c r="E42">
-        <v>0.153846041423285</v>
+        <v>0.2015873825966395</v>
       </c>
       <c r="F42">
-        <v>0.2997681879361865</v>
+        <v>0.8602748458579579</v>
       </c>
       <c r="G42">
-        <v>-0.1111315769035878</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.2010612912115542</v>
+      </c>
+      <c r="H42">
+        <v>-0.05925698360298635</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.005646880881765411</v>
+        <v>-0.01204574607856406</v>
       </c>
       <c r="C43">
-        <v>0.006144163947589808</v>
+        <v>0.001589679738777179</v>
       </c>
       <c r="D43">
-        <v>0.01697408236975922</v>
+        <v>-0.01295567488874533</v>
       </c>
       <c r="E43">
-        <v>-0.007861460731570707</v>
+        <v>0.005832687505870496</v>
       </c>
       <c r="F43">
-        <v>-0.02097085253089724</v>
+        <v>0.008201992371941774</v>
       </c>
       <c r="G43">
-        <v>-0.04809891494006868</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.005433921678749018</v>
+      </c>
+      <c r="H43">
+        <v>0.004539884696588083</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01481729022997526</v>
+        <v>-0.0144402916439639</v>
       </c>
       <c r="C44">
-        <v>0.008532053325077466</v>
+        <v>-0.001303074421850897</v>
       </c>
       <c r="D44">
-        <v>0.02327117394541058</v>
+        <v>0.02426526966635224</v>
       </c>
       <c r="E44">
-        <v>-0.006136193239112644</v>
+        <v>-0.004936902984853464</v>
       </c>
       <c r="F44">
-        <v>-0.1139719169661371</v>
+        <v>0.006877324120799009</v>
       </c>
       <c r="G44">
-        <v>-0.0847422796913863</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.03803454775984339</v>
+      </c>
+      <c r="H44">
+        <v>0.0616836160882538</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01865779221126699</v>
+        <v>-0.01809425730554692</v>
       </c>
       <c r="C46">
-        <v>-0.01115481662793325</v>
+        <v>0.004109167683343234</v>
       </c>
       <c r="D46">
-        <v>0.02482102090535498</v>
+        <v>0.01321154439757068</v>
       </c>
       <c r="E46">
-        <v>-0.03985984365679264</v>
+        <v>-0.001211839035346972</v>
       </c>
       <c r="F46">
-        <v>-0.06560841591107723</v>
+        <v>-0.01315431704173759</v>
       </c>
       <c r="G46">
-        <v>-0.06474546102479241</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.04706174589094261</v>
+      </c>
+      <c r="H46">
+        <v>0.01581780817903978</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.09370210131547349</v>
+        <v>-0.07434234154282421</v>
       </c>
       <c r="C47">
-        <v>-0.03344149071231497</v>
+        <v>-0.02928340672525905</v>
       </c>
       <c r="D47">
-        <v>0.009818739575808273</v>
+        <v>0.04522600949162869</v>
       </c>
       <c r="E47">
-        <v>-0.02218735336397437</v>
+        <v>-2.627128515246378e-05</v>
       </c>
       <c r="F47">
-        <v>-0.02564234630386676</v>
+        <v>-0.02170349695225017</v>
       </c>
       <c r="G47">
-        <v>-0.09217158136416587</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.008023868227889324</v>
+      </c>
+      <c r="H47">
+        <v>-0.02006852840002509</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.0170136984652533</v>
+        <v>-0.02222740809230347</v>
       </c>
       <c r="C48">
-        <v>-0.005403439560767616</v>
+        <v>-0.006463922470514971</v>
       </c>
       <c r="D48">
-        <v>0.01513713000972886</v>
+        <v>0.008166649624239795</v>
       </c>
       <c r="E48">
-        <v>-0.01871557011187527</v>
+        <v>-0.001434800492594069</v>
       </c>
       <c r="F48">
-        <v>-0.05215333900552922</v>
+        <v>-0.007871205795618468</v>
       </c>
       <c r="G48">
-        <v>-0.02452599939873407</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.02556488476015158</v>
+      </c>
+      <c r="H48">
+        <v>0.01993445407855262</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.08687779305476519</v>
+        <v>-0.07262444776624548</v>
       </c>
       <c r="C50">
-        <v>-0.03490878576523619</v>
+        <v>-0.02657809208257243</v>
       </c>
       <c r="D50">
-        <v>0.02822011900818608</v>
+        <v>0.04481955080227876</v>
       </c>
       <c r="E50">
-        <v>-0.02750305612986764</v>
+        <v>-0.01548351912141001</v>
       </c>
       <c r="F50">
-        <v>-0.05350322140908353</v>
+        <v>-0.01752427502823364</v>
       </c>
       <c r="G50">
-        <v>-0.04529040581958449</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.01458118158069857</v>
+      </c>
+      <c r="H50">
+        <v>0.0001523995728211487</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.01806460360287644</v>
+        <v>-0.01877218179111443</v>
       </c>
       <c r="C51">
-        <v>0.01312319317978257</v>
+        <v>0.001812297464223502</v>
       </c>
       <c r="D51">
-        <v>0.01202065493708643</v>
+        <v>-0.007162667253478409</v>
       </c>
       <c r="E51">
-        <v>0.016837572991507</v>
+        <v>-0.001680185423357321</v>
       </c>
       <c r="F51">
-        <v>-0.1096963422003863</v>
+        <v>0.01346426746292306</v>
       </c>
       <c r="G51">
-        <v>-0.05038340452651736</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.04802117738860248</v>
+      </c>
+      <c r="H51">
+        <v>0.0539379016861266</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1046600759667069</v>
+        <v>-0.09323557214862116</v>
       </c>
       <c r="C53">
-        <v>-0.05337551456599006</v>
+        <v>-0.03687838985752812</v>
       </c>
       <c r="D53">
-        <v>0.0129980139343766</v>
+        <v>0.08190334258463909</v>
       </c>
       <c r="E53">
-        <v>-0.04514049869420668</v>
+        <v>-0.006370209543750957</v>
       </c>
       <c r="F53">
-        <v>0.0341226874385542</v>
+        <v>-0.05012572783719987</v>
       </c>
       <c r="G53">
-        <v>-0.02918733609475064</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.04209247491560717</v>
+      </c>
+      <c r="H53">
+        <v>-0.04239172022058872</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.02138806972817676</v>
+        <v>-0.0262174970746795</v>
       </c>
       <c r="C54">
-        <v>-0.01209156973519256</v>
+        <v>-0.01096684861137151</v>
       </c>
       <c r="D54">
-        <v>-0.00874091106597044</v>
+        <v>-0.0134848292404815</v>
       </c>
       <c r="E54">
-        <v>-0.03200605148450415</v>
+        <v>-0.007041528038517792</v>
       </c>
       <c r="F54">
-        <v>-0.05356447795160171</v>
+        <v>-0.005226809366577189</v>
       </c>
       <c r="G54">
-        <v>-0.07041964788191277</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.03971501552395902</v>
+      </c>
+      <c r="H54">
+        <v>-0.001961567179927147</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.1054907872884575</v>
+        <v>-0.07676330862913591</v>
       </c>
       <c r="C55">
-        <v>-0.03106956394195607</v>
+        <v>-0.03163214162314359</v>
       </c>
       <c r="D55">
-        <v>-0.007370409668227237</v>
+        <v>0.07763990338130373</v>
       </c>
       <c r="E55">
-        <v>-0.0703690379589368</v>
+        <v>-0.01383510750170773</v>
       </c>
       <c r="F55">
-        <v>0.02355957957599495</v>
+        <v>-0.03965717720189409</v>
       </c>
       <c r="G55">
-        <v>-0.07382021607455627</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.01820185059560887</v>
+      </c>
+      <c r="H55">
+        <v>-0.0510001735010244</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1437960134717401</v>
+        <v>-0.1260809759602578</v>
       </c>
       <c r="C56">
-        <v>-0.0936474034019211</v>
+        <v>-0.05581661505370208</v>
       </c>
       <c r="D56">
-        <v>-0.02688811182962375</v>
+        <v>0.103360225235012</v>
       </c>
       <c r="E56">
-        <v>-0.06846772244721001</v>
+        <v>-0.009866968580510064</v>
       </c>
       <c r="F56">
-        <v>0.08730266489760023</v>
+        <v>-0.08208116131749951</v>
       </c>
       <c r="G56">
-        <v>0.03256064433098321</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.07624628812395524</v>
+      </c>
+      <c r="H56">
+        <v>-0.05138929124255645</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.04724431579412765</v>
+        <v>-0.03849893611442815</v>
       </c>
       <c r="C57">
-        <v>0.001509610331343147</v>
+        <v>0.0108745868887613</v>
       </c>
       <c r="D57">
-        <v>0.0177049184439392</v>
+        <v>0.0301660698978027</v>
       </c>
       <c r="E57">
-        <v>0.0225101805320394</v>
+        <v>0.005077036661341409</v>
       </c>
       <c r="F57">
-        <v>-0.07614898884969695</v>
+        <v>-0.01200725080096308</v>
       </c>
       <c r="G57">
-        <v>-0.06387856330584017</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.05640180165331984</v>
+      </c>
+      <c r="H57">
+        <v>0.04496768731655395</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.2098723809836504</v>
+        <v>-0.1466092899180701</v>
       </c>
       <c r="C58">
-        <v>-0.07313173121732822</v>
+        <v>-0.04284771945601212</v>
       </c>
       <c r="D58">
-        <v>0.1183754439966592</v>
+        <v>0.1550231595778024</v>
       </c>
       <c r="E58">
-        <v>-0.07582202086424995</v>
+        <v>0.1684338896625356</v>
       </c>
       <c r="F58">
-        <v>-0.3635562358001895</v>
+        <v>0.04403421198796671</v>
       </c>
       <c r="G58">
-        <v>-0.08191271911971859</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.8305689096532686</v>
+      </c>
+      <c r="H58">
+        <v>-0.3744798583378078</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.04834510815126724</v>
+        <v>-0.1582747266868254</v>
       </c>
       <c r="C59">
-        <v>0.01046946729370579</v>
+        <v>-0.03492110084689966</v>
       </c>
       <c r="D59">
-        <v>-0.1062350326600971</v>
+        <v>-0.2240186272453212</v>
       </c>
       <c r="E59">
-        <v>0.1482223909192448</v>
+        <v>0.02333562282673854</v>
       </c>
       <c r="F59">
-        <v>-0.0532911005801267</v>
+        <v>0.02332419635602176</v>
       </c>
       <c r="G59">
-        <v>0.02310324733579157</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.01012011888433649</v>
+      </c>
+      <c r="H59">
+        <v>0.01924744131969419</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1615164822167306</v>
+        <v>-0.1766385368491717</v>
       </c>
       <c r="C60">
-        <v>-0.03961480303021424</v>
+        <v>-0.03549701680768301</v>
       </c>
       <c r="D60">
-        <v>0.06619991887511861</v>
+        <v>0.01850225140144527</v>
       </c>
       <c r="E60">
-        <v>0.08135786075833039</v>
+        <v>0.0501335937697717</v>
       </c>
       <c r="F60">
-        <v>-0.1469223627290057</v>
+        <v>-0.03102106284900237</v>
       </c>
       <c r="G60">
-        <v>0.311894743037514</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.03704203429967089</v>
+      </c>
+      <c r="H60">
+        <v>0.3843741278048929</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.02097586212679065</v>
+        <v>-0.02142159099121724</v>
       </c>
       <c r="C61">
-        <v>-0.006689936880692242</v>
+        <v>-0.006330092907054262</v>
       </c>
       <c r="D61">
-        <v>0.01765633527773699</v>
+        <v>0.04348956700467183</v>
       </c>
       <c r="E61">
-        <v>-0.01333228461374471</v>
+        <v>-0.003868231508052973</v>
       </c>
       <c r="F61">
-        <v>-0.04201898156989874</v>
+        <v>-0.01621957911301516</v>
       </c>
       <c r="G61">
-        <v>-0.02095736137676731</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.02574812312329612</v>
+      </c>
+      <c r="H61">
+        <v>0.05174825794475382</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01392736095540238</v>
+        <v>-0.01247375982882421</v>
       </c>
       <c r="C63">
-        <v>-0.007976467310968932</v>
+        <v>0.002586037782559327</v>
       </c>
       <c r="D63">
-        <v>0.01908372528348747</v>
+        <v>0.01751269672759859</v>
       </c>
       <c r="E63">
-        <v>-0.03869746319483634</v>
+        <v>-0.00476750896884468</v>
       </c>
       <c r="F63">
-        <v>-0.01718597158554401</v>
+        <v>-0.01276186658900582</v>
       </c>
       <c r="G63">
-        <v>-0.05283544635445717</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.01821894601315002</v>
+      </c>
+      <c r="H63">
+        <v>0.006349505080653402</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.03438090697502663</v>
+        <v>-0.03918308523145776</v>
       </c>
       <c r="C64">
-        <v>-0.003198162809593804</v>
+        <v>-0.009058041409405622</v>
       </c>
       <c r="D64">
-        <v>-0.009483057911778824</v>
+        <v>0.03743880288065147</v>
       </c>
       <c r="E64">
-        <v>-0.05532015954457851</v>
+        <v>-0.0114469100962602</v>
       </c>
       <c r="F64">
-        <v>-0.03409768159984273</v>
+        <v>-0.003357949033000147</v>
       </c>
       <c r="G64">
-        <v>-0.06312314979652953</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.00607519218001836</v>
+      </c>
+      <c r="H64">
+        <v>0.03979419741218849</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.0211109492565825</v>
+        <v>-0.02777771866228667</v>
       </c>
       <c r="C65">
-        <v>-0.01458115216075529</v>
+        <v>0.005228318375742166</v>
       </c>
       <c r="D65">
-        <v>0.01516288737790099</v>
+        <v>0.05870396400725565</v>
       </c>
       <c r="E65">
-        <v>-0.02047863479404426</v>
+        <v>-0.009920721772886063</v>
       </c>
       <c r="F65">
-        <v>-0.01915490405363685</v>
+        <v>-0.03166493701344265</v>
       </c>
       <c r="G65">
-        <v>0.01478632382116616</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.002041040639810553</v>
+      </c>
+      <c r="H65">
+        <v>0.06561458210071811</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.04055847100612191</v>
+        <v>-0.02459513085870106</v>
       </c>
       <c r="C66">
-        <v>-0.03765438158836997</v>
+        <v>-0.005703561140861495</v>
       </c>
       <c r="D66">
-        <v>0.03093914916234453</v>
+        <v>0.09028716722654247</v>
       </c>
       <c r="E66">
-        <v>-0.02422531823203607</v>
+        <v>0.004466163536417421</v>
       </c>
       <c r="F66">
-        <v>-0.06698593853531344</v>
+        <v>-0.03429621709426293</v>
       </c>
       <c r="G66">
-        <v>-0.0211802871091871</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.03607221721928029</v>
+      </c>
+      <c r="H66">
+        <v>0.07512749493095527</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.01443124135723884</v>
+        <v>-0.04355018034340534</v>
       </c>
       <c r="C67">
-        <v>0.004734211380079287</v>
+        <v>-0.01939526906779072</v>
       </c>
       <c r="D67">
-        <v>0.01461480725923815</v>
+        <v>0.004363929152901629</v>
       </c>
       <c r="E67">
-        <v>0.0387646952005448</v>
+        <v>0.005889522806938756</v>
       </c>
       <c r="F67">
-        <v>-0.02376903646939913</v>
+        <v>-0.01510472706046871</v>
       </c>
       <c r="G67">
-        <v>-0.002844373278534841</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.003805591609086382</v>
+      </c>
+      <c r="H67">
+        <v>0.0387041642854731</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.0631338808400889</v>
+        <v>-0.1565642145781623</v>
       </c>
       <c r="C68">
-        <v>0.02848588449369705</v>
+        <v>-0.0140564077939125</v>
       </c>
       <c r="D68">
-        <v>-0.1363783831123923</v>
+        <v>-0.2253482147216173</v>
       </c>
       <c r="E68">
-        <v>0.1469870758736542</v>
+        <v>0.01835127783246882</v>
       </c>
       <c r="F68">
-        <v>-0.04176519926088267</v>
+        <v>0.04770314844019263</v>
       </c>
       <c r="G68">
-        <v>0.06191824557620419</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.02098356318462948</v>
+      </c>
+      <c r="H68">
+        <v>-0.04555751493975375</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.07005824281524838</v>
+        <v>-0.05851482111148164</v>
       </c>
       <c r="C69">
-        <v>-0.0382521999645308</v>
+        <v>-0.0282316980386926</v>
       </c>
       <c r="D69">
-        <v>0.004765093830392171</v>
+        <v>0.04135998612489382</v>
       </c>
       <c r="E69">
-        <v>-0.00238126751327266</v>
+        <v>0.001908631160323375</v>
       </c>
       <c r="F69">
-        <v>-0.01982730334018329</v>
+        <v>-0.03088428784201703</v>
       </c>
       <c r="G69">
-        <v>-0.08972258675102902</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.01391649003227591</v>
+      </c>
+      <c r="H69">
+        <v>0.006080839947242509</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.07141044115190286</v>
+        <v>-0.1481303218496831</v>
       </c>
       <c r="C71">
-        <v>0.04391734569452552</v>
+        <v>-0.02235069328114053</v>
       </c>
       <c r="D71">
-        <v>-0.1189494697652121</v>
+        <v>-0.197768499293789</v>
       </c>
       <c r="E71">
-        <v>0.2027161016056527</v>
+        <v>0.02398790043046304</v>
       </c>
       <c r="F71">
-        <v>-0.04090171263559361</v>
+        <v>0.0550239236560371</v>
       </c>
       <c r="G71">
-        <v>0.008894207671712543</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.02045044911170835</v>
+      </c>
+      <c r="H71">
+        <v>-0.03129401535314377</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1134293479298763</v>
+        <v>-0.08201264985388947</v>
       </c>
       <c r="C72">
-        <v>-0.08597290629272004</v>
+        <v>-0.03896486466972295</v>
       </c>
       <c r="D72">
-        <v>-0.005832778557058511</v>
+        <v>0.07745723837975586</v>
       </c>
       <c r="E72">
-        <v>-0.007540431971088585</v>
+        <v>0.01103078666726227</v>
       </c>
       <c r="F72">
-        <v>-0.1272740787506079</v>
+        <v>-0.0759347918831812</v>
       </c>
       <c r="G72">
-        <v>0.08982676904346977</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.05691193339971666</v>
+      </c>
+      <c r="H72">
+        <v>0.1656283521623164</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2399096493457395</v>
+        <v>-0.2369005412189195</v>
       </c>
       <c r="C73">
-        <v>-0.02662301188677349</v>
+        <v>-0.04445067686616641</v>
       </c>
       <c r="D73">
-        <v>0.07948447205994537</v>
+        <v>0.0713744714169669</v>
       </c>
       <c r="E73">
-        <v>0.2014052200272451</v>
+        <v>0.08468625692464085</v>
       </c>
       <c r="F73">
-        <v>-0.2428472396919463</v>
+        <v>-0.02430729203577226</v>
       </c>
       <c r="G73">
-        <v>0.4371693982895875</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.05363534608558809</v>
+      </c>
+      <c r="H73">
+        <v>0.5036376436774388</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1418607244156985</v>
+        <v>-0.1175703530278794</v>
       </c>
       <c r="C74">
-        <v>-0.04209088635145027</v>
+        <v>-0.05182709165383718</v>
       </c>
       <c r="D74">
-        <v>-0.01875809482018654</v>
+        <v>0.106775987379704</v>
       </c>
       <c r="E74">
-        <v>-0.04282149805514114</v>
+        <v>-0.007572409314825569</v>
       </c>
       <c r="F74">
-        <v>0.06421325171504511</v>
+        <v>-0.06015834367267583</v>
       </c>
       <c r="G74">
-        <v>0.01638344196338433</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.0566825586414253</v>
+      </c>
+      <c r="H74">
+        <v>-0.03379777823918764</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2338404883677736</v>
+        <v>-0.2265552842096834</v>
       </c>
       <c r="C75">
-        <v>-0.1579542549627409</v>
+        <v>-0.1013449569449902</v>
       </c>
       <c r="D75">
-        <v>-0.04037227286966298</v>
+        <v>0.1668692568483979</v>
       </c>
       <c r="E75">
-        <v>-0.08739274935451603</v>
+        <v>0.005251215293197781</v>
       </c>
       <c r="F75">
-        <v>0.1121381830495213</v>
+        <v>-0.1468522462718292</v>
       </c>
       <c r="G75">
-        <v>0.006870407498272533</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.1264792695410938</v>
+      </c>
+      <c r="H75">
+        <v>-0.1192832511834426</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2799351872567921</v>
+        <v>-0.2016525533585533</v>
       </c>
       <c r="C76">
-        <v>-0.144423754300908</v>
+        <v>-0.09489879196975076</v>
       </c>
       <c r="D76">
-        <v>-0.104892823668805</v>
+        <v>0.1590444229212857</v>
       </c>
       <c r="E76">
-        <v>-0.1198791662692936</v>
+        <v>-0.04492916203205776</v>
       </c>
       <c r="F76">
-        <v>0.1451903741168812</v>
+        <v>-0.1430097328409919</v>
       </c>
       <c r="G76">
-        <v>-0.003156672750552036</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.1217677209599631</v>
+      </c>
+      <c r="H76">
+        <v>-0.1271049089717471</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1355562439152791</v>
+        <v>-0.06993620700464649</v>
       </c>
       <c r="C77">
-        <v>0.02812761667786829</v>
+        <v>-0.008178042324694849</v>
       </c>
       <c r="D77">
-        <v>0.0900765996688515</v>
+        <v>0.06125843272917569</v>
       </c>
       <c r="E77">
-        <v>-0.04199197887592997</v>
+        <v>0.01252067545937582</v>
       </c>
       <c r="F77">
-        <v>-0.1964190683819257</v>
+        <v>0.03796917404119293</v>
       </c>
       <c r="G77">
-        <v>-0.1664693175329899</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.1010567461654869</v>
+      </c>
+      <c r="H77">
+        <v>0.01149986567213816</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.06876424755770599</v>
+        <v>-0.03880854593216559</v>
       </c>
       <c r="C78">
-        <v>-0.02474858401126106</v>
+        <v>-0.009901462342631355</v>
       </c>
       <c r="D78">
-        <v>0.03127051805929213</v>
+        <v>0.05022192850288205</v>
       </c>
       <c r="E78">
-        <v>-0.08156434518786318</v>
+        <v>-0.007875241062210376</v>
       </c>
       <c r="F78">
-        <v>-0.09216816920310016</v>
+        <v>-0.01999469373034643</v>
       </c>
       <c r="G78">
-        <v>-0.02258846503817788</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.05911447917967457</v>
+      </c>
+      <c r="H78">
+        <v>0.07344760082629077</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.1383371832658515</v>
+        <v>-0.1359366333539134</v>
       </c>
       <c r="C80">
-        <v>0.627335745624797</v>
+        <v>-0.03455219896548745</v>
       </c>
       <c r="D80">
-        <v>-0.4995626142255107</v>
+        <v>0.04264986104812033</v>
       </c>
       <c r="E80">
-        <v>-0.5226859445802842</v>
+        <v>-0.945283431782075</v>
       </c>
       <c r="F80">
-        <v>-0.1267446882736359</v>
+        <v>0.2147476924796249</v>
       </c>
       <c r="G80">
-        <v>0.1285534897311113</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.1250117753280048</v>
+      </c>
+      <c r="H80">
+        <v>0.01153918515888033</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1697078804376661</v>
+        <v>-0.1482093419014595</v>
       </c>
       <c r="C81">
-        <v>-0.1068456846819899</v>
+        <v>-0.06490496489720346</v>
       </c>
       <c r="D81">
-        <v>-0.05219922466017658</v>
+        <v>0.09911774925969186</v>
       </c>
       <c r="E81">
-        <v>-0.06616722676779098</v>
+        <v>-0.01542292868276932</v>
       </c>
       <c r="F81">
-        <v>0.1190623931237093</v>
+        <v>-0.08703987411860689</v>
       </c>
       <c r="G81">
-        <v>0.01867254468293141</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.08178010643994492</v>
+      </c>
+      <c r="H81">
+        <v>-0.08293443668421979</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.04796993350623643</v>
+        <v>-0.03197670139885822</v>
       </c>
       <c r="C83">
-        <v>0.0005871599700963565</v>
+        <v>-0.005324368166289227</v>
       </c>
       <c r="D83">
-        <v>0.04316856752297393</v>
+        <v>0.02173971250152688</v>
       </c>
       <c r="E83">
-        <v>-0.005735145216503599</v>
+        <v>0.006070400887892247</v>
       </c>
       <c r="F83">
-        <v>-0.05501916327540376</v>
+        <v>0.0004315313545993903</v>
       </c>
       <c r="G83">
-        <v>-0.04932989611302324</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.04033835735709042</v>
+      </c>
+      <c r="H83">
+        <v>0.04073001688019637</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2547872706846327</v>
+        <v>-0.2172133556221881</v>
       </c>
       <c r="C85">
-        <v>-0.1375358293753695</v>
+        <v>-0.08538735185377751</v>
       </c>
       <c r="D85">
-        <v>-0.05980088392847326</v>
+        <v>0.168912706626837</v>
       </c>
       <c r="E85">
-        <v>-0.09438574516752972</v>
+        <v>-0.002590468955680181</v>
       </c>
       <c r="F85">
-        <v>0.09961213311871478</v>
+        <v>-0.1335137355209688</v>
       </c>
       <c r="G85">
-        <v>-0.03656081436379594</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.1369390218480192</v>
+      </c>
+      <c r="H85">
+        <v>-0.08740867001663884</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.004126546472722843</v>
+        <v>-0.02072896520645658</v>
       </c>
       <c r="C86">
-        <v>0.007821789250623943</v>
+        <v>0.0008080470440168822</v>
       </c>
       <c r="D86">
-        <v>0.02738202302318652</v>
+        <v>0.008598057679432169</v>
       </c>
       <c r="E86">
-        <v>-0.04513070398119139</v>
+        <v>0.008668578949734596</v>
       </c>
       <c r="F86">
-        <v>-0.06792643501931114</v>
+        <v>0.02039899300301219</v>
       </c>
       <c r="G86">
-        <v>-0.01814534904189925</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.06045078354588707</v>
+      </c>
+      <c r="H86">
+        <v>0.08151703449885084</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.03831529125598124</v>
+        <v>-0.02750411258278211</v>
       </c>
       <c r="C87">
-        <v>0.009562825465297633</v>
+        <v>-0.001960474354612576</v>
       </c>
       <c r="D87">
-        <v>0.005743961527209437</v>
+        <v>0.0322802440731933</v>
       </c>
       <c r="E87">
-        <v>-0.02539925303720901</v>
+        <v>-0.008454655361720249</v>
       </c>
       <c r="F87">
-        <v>-0.1149212224983837</v>
+        <v>-0.005022485795036721</v>
       </c>
       <c r="G87">
-        <v>-0.02889939896688355</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.07664791122772613</v>
+      </c>
+      <c r="H87">
+        <v>0.07539893038342078</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.00983571473937804</v>
+        <v>-0.03366847743794518</v>
       </c>
       <c r="C88">
-        <v>-0.003263958441215364</v>
+        <v>0.01229097152136564</v>
       </c>
       <c r="D88">
-        <v>-0.01146232268003963</v>
+        <v>0.007071469006838297</v>
       </c>
       <c r="E88">
-        <v>-0.001656308180202907</v>
+        <v>-0.006512302017036478</v>
       </c>
       <c r="F88">
-        <v>-0.003039176176860563</v>
+        <v>-0.007334796818255543</v>
       </c>
       <c r="G88">
-        <v>-0.06187864316373884</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.002917087548497344</v>
+      </c>
+      <c r="H88">
+        <v>0.01480623447067165</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.09130073502994168</v>
+        <v>-0.2539536847878913</v>
       </c>
       <c r="C89">
-        <v>0.05774531481644737</v>
+        <v>-0.03596129355546065</v>
       </c>
       <c r="D89">
-        <v>-0.1735481284613175</v>
+        <v>-0.3506518766699286</v>
       </c>
       <c r="E89">
-        <v>0.2627991818704616</v>
+        <v>0.03607042822946723</v>
       </c>
       <c r="F89">
-        <v>-0.08143691814326548</v>
+        <v>0.05038574196649099</v>
       </c>
       <c r="G89">
-        <v>-0.01178213523922002</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.02346556864725677</v>
+      </c>
+      <c r="H89">
+        <v>-0.007013646537557692</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.081515091719259</v>
+        <v>-0.2024910126250556</v>
       </c>
       <c r="C90">
-        <v>0.08737383267053864</v>
+        <v>-0.02855465881108823</v>
       </c>
       <c r="D90">
-        <v>-0.224281261487752</v>
+        <v>-0.3087909530614751</v>
       </c>
       <c r="E90">
-        <v>0.2617187998173686</v>
+        <v>0.02760589411256974</v>
       </c>
       <c r="F90">
-        <v>-0.03343395492783327</v>
+        <v>0.07023905044304374</v>
       </c>
       <c r="G90">
-        <v>-0.02206225040171298</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.03035002221917698</v>
+      </c>
+      <c r="H90">
+        <v>-0.07030161588672616</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.3114181929137423</v>
+        <v>-0.2323401098192873</v>
       </c>
       <c r="C91">
-        <v>-0.1565915868878169</v>
+        <v>-0.1017273488129682</v>
       </c>
       <c r="D91">
-        <v>-0.05175240326935469</v>
+        <v>0.1571406279842116</v>
       </c>
       <c r="E91">
-        <v>-0.08951593256369668</v>
+        <v>-0.0003109570019507858</v>
       </c>
       <c r="F91">
-        <v>0.2226313774515367</v>
+        <v>-0.1383465952059887</v>
       </c>
       <c r="G91">
-        <v>0.03127045935876294</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.148522978045964</v>
+      </c>
+      <c r="H91">
+        <v>-0.1657745952186958</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1742992795208476</v>
+        <v>-0.2509078310324667</v>
       </c>
       <c r="C92">
-        <v>0.02428773777363621</v>
+        <v>-0.09261968020978968</v>
       </c>
       <c r="D92">
-        <v>-0.3232516724167743</v>
+        <v>-0.2359545856450609</v>
       </c>
       <c r="E92">
-        <v>0.3247822878098913</v>
+        <v>0.01402681291270148</v>
       </c>
       <c r="F92">
-        <v>0.07816787022038486</v>
+        <v>0.01585502751467466</v>
       </c>
       <c r="G92">
-        <v>-0.5364791061224464</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.009064984029790543</v>
+      </c>
+      <c r="H92">
+        <v>-0.1404001862899676</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.08773042453730195</v>
+        <v>-0.2275964885433726</v>
       </c>
       <c r="C93">
-        <v>0.09216293617191496</v>
+        <v>-0.04067621584821796</v>
       </c>
       <c r="D93">
-        <v>-0.256357003214515</v>
+        <v>-0.3291545112171396</v>
       </c>
       <c r="E93">
-        <v>0.3708990123323833</v>
+        <v>0.05060594815576093</v>
       </c>
       <c r="F93">
-        <v>0.0175180440798232</v>
+        <v>0.07737676013274282</v>
       </c>
       <c r="G93">
-        <v>0.06206710509825789</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.02893724233305319</v>
+      </c>
+      <c r="H93">
+        <v>-0.01386358758988325</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.303696875615892</v>
+        <v>-0.2550671303237325</v>
       </c>
       <c r="C94">
-        <v>-0.220247082538022</v>
+        <v>-0.09183493503539589</v>
       </c>
       <c r="D94">
-        <v>-0.09658324050833776</v>
+        <v>0.1552819268532206</v>
       </c>
       <c r="E94">
-        <v>-0.1026384610774735</v>
+        <v>0.01168825665714088</v>
       </c>
       <c r="F94">
-        <v>0.1920306825461161</v>
+        <v>-0.1840681097880757</v>
       </c>
       <c r="G94">
-        <v>0.05985201423605142</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.1346550101879511</v>
+      </c>
+      <c r="H94">
+        <v>-0.1914113441347872</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.06705894842528906</v>
+        <v>-0.05473101890007168</v>
       </c>
       <c r="C95">
-        <v>-0.03695762445426147</v>
+        <v>-0.02951619533526847</v>
       </c>
       <c r="D95">
-        <v>0.09954648868446654</v>
+        <v>0.08668548913578226</v>
       </c>
       <c r="E95">
-        <v>-0.06211832154208531</v>
+        <v>0.08309600838571546</v>
       </c>
       <c r="F95">
-        <v>-0.01605902376913478</v>
+        <v>-0.002489980356562752</v>
       </c>
       <c r="G95">
-        <v>-0.1784412220174109</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.03237210181381157</v>
+      </c>
+      <c r="H95">
+        <v>0.04848523656214982</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1833470088169042</v>
+        <v>-0.1807315626617495</v>
       </c>
       <c r="C98">
-        <v>0.01211363337738869</v>
+        <v>-0.06668605183809358</v>
       </c>
       <c r="D98">
-        <v>0.0445395179292145</v>
+        <v>0.04789803928964941</v>
       </c>
       <c r="E98">
-        <v>0.1185816089044773</v>
+        <v>0.0482091157908062</v>
       </c>
       <c r="F98">
-        <v>-0.1316840131742769</v>
+        <v>-0.0001784865667482489</v>
       </c>
       <c r="G98">
-        <v>0.3576619571008258</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.07911187283281786</v>
+      </c>
+      <c r="H98">
+        <v>0.3690988244007766</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.007007302961734628</v>
+        <v>-0.01522646769020393</v>
       </c>
       <c r="C101">
-        <v>-0.02134376386226066</v>
+        <v>0.0007965425722953944</v>
       </c>
       <c r="D101">
-        <v>0.02109484190507391</v>
+        <v>0.008531050904432661</v>
       </c>
       <c r="E101">
-        <v>-0.081245264297076</v>
+        <v>-0.005046659968350309</v>
       </c>
       <c r="F101">
-        <v>-0.161183315829894</v>
+        <v>-0.01679672771684745</v>
       </c>
       <c r="G101">
-        <v>-0.1666480714541011</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.1088525275223053</v>
+      </c>
+      <c r="H101">
+        <v>-0.02579650274079247</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1121316391344109</v>
+        <v>-0.1048895724616016</v>
       </c>
       <c r="C102">
-        <v>-0.07271799767884814</v>
+        <v>-0.03395120895906376</v>
       </c>
       <c r="D102">
-        <v>-0.009101691204637411</v>
+        <v>0.08297146481368994</v>
       </c>
       <c r="E102">
-        <v>-0.06717902657794092</v>
+        <v>-0.0055931816098389</v>
       </c>
       <c r="F102">
-        <v>0.1012703506127604</v>
+        <v>-0.06999711168746196</v>
       </c>
       <c r="G102">
-        <v>-0.003001236660026905</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.07757325337696097</v>
+      </c>
+      <c r="H102">
+        <v>-0.06455697372394736</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.03079292891311964</v>
+        <v>-0.01905721269129567</v>
       </c>
       <c r="C103">
-        <v>-0.01702417483359421</v>
+        <v>-0.007136107201447116</v>
       </c>
       <c r="D103">
-        <v>-0.004851779534081469</v>
+        <v>0.01724652925307288</v>
       </c>
       <c r="E103">
-        <v>-0.01628223075804803</v>
+        <v>-0.01112001688308847</v>
       </c>
       <c r="F103">
-        <v>-0.01083644496463232</v>
+        <v>-0.0127696270972572</v>
       </c>
       <c r="G103">
-        <v>-0.02000005404246579</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.0005644965203787802</v>
+      </c>
+      <c r="H103">
+        <v>-0.006689816514684794</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.2580027317840283</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.9491841654422729</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.0246829692777192</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.02929270396812305</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.144163392450964</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>0.01259821864792922</v>
+      </c>
+      <c r="H104">
+        <v>-0.03941660572878206</v>
       </c>
     </row>
   </sheetData>
